--- a/Planning_Urenverdeling/Urenverdeling Week2.xlsx
+++ b/Planning_Urenverdeling/Urenverdeling Week2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jip\Desktop\Group-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jip\Desktop\Group-project\Planning_Urenverdeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t xml:space="preserve">Planning van de uren </t>
   </si>
@@ -102,6 +102,33 @@
   </si>
   <si>
     <t xml:space="preserve">Codes samenvoegen </t>
+  </si>
+  <si>
+    <t>Stuurformules bedenken</t>
+  </si>
+  <si>
+    <t>Belbin test</t>
+  </si>
+  <si>
+    <t>Omdraaien op de lijn</t>
+  </si>
+  <si>
+    <t>Vergadering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentatie </t>
+  </si>
+  <si>
+    <t>Bitmap</t>
+  </si>
+  <si>
+    <t>Te laat</t>
+  </si>
+  <si>
+    <t>n.v.t</t>
+  </si>
+  <si>
+    <t>20 min.</t>
   </si>
 </sst>
 </file>
@@ -741,7 +768,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,12 +948,24 @@
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="19"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="1"/>
+      <c r="N5" s="26">
+        <v>42461</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1124,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="19"/>
@@ -1203,12 +1242,24 @@
       <c r="E12" s="19">
         <v>0.5</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="1"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -1225,14 +1276,33 @@
       <c r="B13" s="22">
         <v>42459</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="1"/>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1249,14 +1319,33 @@
       <c r="B14" s="22">
         <v>42459</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="1"/>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1273,7 +1362,9 @@
       <c r="B15" s="37">
         <v>42459</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D15" s="10">
         <v>4</v>
       </c>
@@ -1286,10 +1377,18 @@
       <c r="G15" s="12">
         <v>3</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
+      <c r="H15" s="11">
+        <v>3</v>
+      </c>
+      <c r="I15" s="12">
+        <v>3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>3</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3</v>
+      </c>
       <c r="L15" s="12"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1306,15 +1405,33 @@
       <c r="B16" s="39">
         <v>42460</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="41"/>
+      <c r="C16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>2</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="41">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="41">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="41">
+        <v>0</v>
+      </c>
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1324,15 +1441,33 @@
       <c r="B17" s="34">
         <v>42460</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="36"/>
+      <c r="C17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="35">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="35">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="36">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="36">
+        <v>1</v>
+      </c>
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1342,15 +1477,33 @@
       <c r="B18" s="22">
         <v>42460</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="1"/>
+      <c r="C18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="35">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="35">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="19">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="19">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1360,7 +1513,9 @@
       <c r="B19" s="37">
         <v>42460</v>
       </c>
-      <c r="C19" s="38"/>
+      <c r="C19" s="38" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
@@ -1378,15 +1533,33 @@
       <c r="B20" s="22">
         <v>42461</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="1"/>
+      <c r="C20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1396,15 +1569,33 @@
       <c r="B21" s="22">
         <v>42461</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="1"/>
+      <c r="C21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1414,15 +1605,33 @@
       <c r="B22" s="22">
         <v>42461</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="1"/>
+      <c r="C22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="35">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
